--- a/expectedPlayers.xlsx
+++ b/expectedPlayers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\dataAnalysis\scripts\ElahlyNewPlayer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\dataAnalysis\scripts\Elahly-New-Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$46</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="103">
   <si>
     <t>name</t>
   </si>
@@ -128,6 +128,20 @@
   </si>
   <si>
     <t xml:space="preserve">
+                Merveille Bokadi            </t>
+  </si>
+  <si>
+    <t>/merveille-bokadi/profil/spieler/368612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Ricky Banda            </t>
+  </si>
+  <si>
+    <t>/ricky-banda/profil/spieler/950263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
                 Issam Jebali            </t>
   </si>
   <si>
@@ -167,6 +181,13 @@
   </si>
   <si>
     <t xml:space="preserve">
+                Ernan            </t>
+  </si>
+  <si>
+    <t>/ernan/profil/spieler/876281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
                 Joseph Mendes            </t>
   </si>
   <si>
@@ -206,10 +227,53 @@
   </si>
   <si>
     <t xml:space="preserve">
-                Panashe Hilton Mutimbanyoka            </t>
-  </si>
-  <si>
-    <t>/panashe-hilton-mutimbanyoka/profil/spieler/853176</t>
+                David Henen            </t>
+  </si>
+  <si>
+    <t>/david-henen/profil/spieler/202831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+            Left Winger        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Sanad Al Warfali            </t>
+  </si>
+  <si>
+    <t>/sanad-al-warfali/profil/spieler/426973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Bruce Bvuma            </t>
+  </si>
+  <si>
+    <t>/bruce-bvuma/profil/spieler/498985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Yaya Sithole            </t>
+  </si>
+  <si>
+    <t>/yaya-sithole/profil/spieler/401736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+            Central Midfield        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Ryan Bidounga            </t>
+  </si>
+  <si>
+    <t>/ryan-bidounga/profil/spieler/272617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Mathyas Randriamamy            </t>
+  </si>
+  <si>
+    <t>/mathyas-randriamamy/profil/spieler/827583</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -220,10 +284,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-            Left Winger        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
                 Souleymane Doukara            </t>
   </si>
   <si>
@@ -231,6 +291,20 @@
   </si>
   <si>
     <t xml:space="preserve">
+                Christophe Nduwarugira            </t>
+  </si>
+  <si>
+    <t>/christophe-nduwarugira/profil/spieler/340032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Abdallah Sudi            </t>
+  </si>
+  <si>
+    <t>/abdallah-sudi/profil/spieler/854526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
                 Saidu Bah Kamara            </t>
   </si>
   <si>
@@ -238,6 +312,20 @@
   </si>
   <si>
     <t xml:space="preserve">
+                Joachim Adukor            </t>
+  </si>
+  <si>
+    <t>/joachim-adukor/profil/spieler/231338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Moses Waiswa            </t>
+  </si>
+  <si>
+    <t>/moses-waiswa/profil/spieler/615607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
                 Pedro Obiang            </t>
   </si>
   <si>
@@ -245,7 +333,59 @@
   </si>
   <si>
     <t xml:space="preserve">
-            Central Midfield        </t>
+                Naim Van Attenhoven            </t>
+  </si>
+  <si>
+    <t>/naim-van-attenhoven/profil/spieler/632082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Thatayaone Ditlhokwe            </t>
+  </si>
+  <si>
+    <t>/thatayaone-ditlhokwe/profil/spieler/594128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Casimir Ninga            </t>
+  </si>
+  <si>
+    <t>/casimir-ninga/profil/spieler/392810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Ezechiel Ndouasel            </t>
+  </si>
+  <si>
+    <t>/ezechiel-ndouasel/profil/spieler/82364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Salomon Nirisarike            </t>
+  </si>
+  <si>
+    <t>/salomon-nirisarike/profil/spieler/231642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Thierry Manzi            </t>
+  </si>
+  <si>
+    <t>/thierry-manzi/profil/spieler/440123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Bernard Agele            </t>
+  </si>
+  <si>
+    <t>/bernard-agele/profil/spieler/723781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Samuel Nlend            </t>
+  </si>
+  <si>
+    <t>/samuel-nlend/profil/spieler/426945</t>
   </si>
 </sst>
 </file>
@@ -609,17 +749,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.42578125" customWidth="1"/>
-    <col min="2" max="2" width="71.42578125" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -751,32 +891,32 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -784,7 +924,7 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -795,10 +935,10 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -806,7 +946,7 @@
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -817,7 +957,7 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -828,10 +968,10 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -839,7 +979,7 @@
         <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -850,51 +990,51 @@
         <v>49</v>
       </c>
       <c r="C21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>51</v>
       </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
         <v>53</v>
       </c>
-      <c r="B23" t="s">
-        <v>54</v>
-      </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
         <v>56</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>57</v>
       </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>58</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>59</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -905,14 +1045,237 @@
         <v>61</v>
       </c>
       <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>62</v>
       </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C26">
+  <autoFilter ref="A1:C46">
     <filterColumn colId="2">
       <filters>
         <filter val="_x000a_            Centre-Forward"/>
+        <filter val="_x000a_            Left Winger"/>
+        <filter val="_x000a_            Right Winger"/>
+        <filter val="_x000a_            Second Striker"/>
       </filters>
     </filterColumn>
   </autoFilter>
